--- a/data/trans_orig/P14C09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C09-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49651381-7446-4519-924B-E391ABB7C1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A43ECED0-859D-4CDC-970D-D37485B0FDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1B3471C6-3E4F-49F3-AC42-88C29CD752F0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CDD1D5AD-2905-4FC7-BBA4-17FDD683F9B4}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -74,10 +74,10 @@
     <t>85,14%</t>
   </si>
   <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,10 +92,10 @@
     <t>94,77%</t>
   </si>
   <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,241 +104,241 @@
     <t>11,43%</t>
   </si>
   <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>Ultimos 12 meses</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>Ultimos 12 meses</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
     <t>1,24%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,54%</t>
+    <t>3,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -753,7 +753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FD254E-8792-43DC-86BD-34ED0E60848C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E0E437-C5B4-4D79-BCCC-A6088526327F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -979,13 +979,13 @@
         <v>807</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>807</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1071,7 +1071,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1083,13 +1083,13 @@
         <v>49068</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>63</v>
@@ -1098,13 +1098,13 @@
         <v>65584</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>109</v>
@@ -1113,13 +1113,13 @@
         <v>114652</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1134,13 +1134,13 @@
         <v>3888</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -1149,13 +1149,13 @@
         <v>7947</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -1164,13 +1164,13 @@
         <v>11835</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1191,7 +1191,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1200,13 +1200,13 @@
         <v>1067</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1215,13 +1215,13 @@
         <v>1067</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1277,7 +1277,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1292,7 +1292,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>16</v>
@@ -1304,13 +1304,13 @@
         <v>16332</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -1319,13 +1319,13 @@
         <v>26020</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1346,7 +1346,7 @@
         <v>25</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1355,13 +1355,13 @@
         <v>2892</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -1370,13 +1370,13 @@
         <v>2892</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1397,7 +1397,7 @@
         <v>25</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1406,13 +1406,13 @@
         <v>902</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1421,13 +1421,13 @@
         <v>902</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1495,13 +1495,13 @@
         <v>78799</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>116</v>
@@ -1510,13 +1510,13 @@
         <v>125319</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="M16" s="7">
         <v>192</v>
@@ -1612,7 +1612,7 @@
         <v>1969</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>24</v>

--- a/data/trans_orig/P14C09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C09-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A43ECED0-859D-4CDC-970D-D37485B0FDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A82C933-77D5-4169-9445-54CAC769CB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CDD1D5AD-2905-4FC7-BBA4-17FDD683F9B4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{918E3185-8230-4B3B-A118-53CD1E732B33}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="102">
   <si>
-    <t>Población según el tiempo de diagnóstico del asma en 2015 (Tasa respuesta: 3,26%)</t>
+    <t>Población según el tiempo de diagnóstico del asma en 2016 (Tasa respuesta: 3,26%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,10 +74,10 @@
     <t>85,14%</t>
   </si>
   <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,10 +92,10 @@
     <t>94,77%</t>
   </si>
   <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,40 +104,43 @@
     <t>11,43%</t>
   </si>
   <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>Ultimos 12 meses</t>
+  </si>
+  <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>Ultimos 12 meses</t>
-  </si>
-  <si>
-    <t>15,53%</t>
+    <t>17,5%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>6,27%</t>
+    <t>6,65%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -146,55 +149,55 @@
     <t>92,66%</t>
   </si>
   <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>87,92%</t>
   </si>
   <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
   </si>
   <si>
     <t>89,89%</t>
   </si>
   <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
   </si>
   <si>
     <t>7,34%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
   </si>
   <si>
     <t>3,75%</t>
@@ -203,13 +206,13 @@
     <t>1,43%</t>
   </si>
   <si>
-    <t>7,0%</t>
+    <t>7,26%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>4,54%</t>
+    <t>4,16%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -221,19 +224,19 @@
     <t>81,15%</t>
   </si>
   <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>87,27%</t>
   </si>
   <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -242,103 +245,100 @@
     <t>14,37%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
   </si>
   <si>
     <t>9,7%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>20,1%</t>
+    <t>21,07%</t>
   </si>
   <si>
     <t>3,02%</t>
   </si>
   <si>
-    <t>14,29%</t>
+    <t>21,84%</t>
   </si>
   <si>
     <t>91,43%</t>
   </si>
   <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>90,73%</t>
   </si>
   <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
   </si>
   <si>
     <t>91,0%</t>
   </si>
   <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
   </si>
   <si>
     <t>7,85%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
+    <t>14,23%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
   </si>
   <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -753,7 +753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E0E437-C5B4-4D79-BCCC-A6088526327F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6EDD87-DCF6-435E-9214-7C3C20EACE08}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -979,13 +979,13 @@
         <v>807</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>807</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1071,7 +1071,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1083,13 +1083,13 @@
         <v>49068</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>63</v>
@@ -1098,13 +1098,13 @@
         <v>65584</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>109</v>
@@ -1113,13 +1113,13 @@
         <v>114652</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1134,13 +1134,13 @@
         <v>3888</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -1149,13 +1149,13 @@
         <v>7947</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -1164,13 +1164,13 @@
         <v>11835</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1191,7 +1191,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1200,13 +1200,13 @@
         <v>1067</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1215,13 +1215,13 @@
         <v>1067</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1277,7 +1277,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1292,7 +1292,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>16</v>
@@ -1304,13 +1304,13 @@
         <v>16332</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -1319,13 +1319,13 @@
         <v>26020</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1346,7 +1346,7 @@
         <v>25</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1355,13 +1355,13 @@
         <v>2892</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -1370,13 +1370,13 @@
         <v>2892</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1397,7 +1397,7 @@
         <v>25</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1406,13 +1406,13 @@
         <v>902</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1421,13 +1421,13 @@
         <v>902</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1495,13 +1495,13 @@
         <v>78799</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>116</v>
@@ -1510,13 +1510,13 @@
         <v>125319</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
         <v>192</v>
@@ -1525,13 +1525,13 @@
         <v>204118</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1546,13 +1546,13 @@
         <v>6579</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -1561,10 +1561,10 @@
         <v>10839</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>91</v>
@@ -1612,7 +1612,7 @@
         <v>1969</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>24</v>
